--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walid\Desktop\Data Analyst Portfolio Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0BA9D6-7FE7-4E84-B4C1-C893F3ACF1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6EE27F-FD72-489C-9112-DF152F859B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity_Fact" sheetId="1" r:id="rId1"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,6 +1241,798 @@
       </c>
       <c r="C73">
         <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+      <c r="C110">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44367</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44367</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1646,7 +2438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
